--- a/FP/Hasil Mentah Kuesioner Prioritas Fitur IBK Online (Responses).xlsx
+++ b/FP/Hasil Mentah Kuesioner Prioritas Fitur IBK Online (Responses).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TerCapai\SMT6\RK\RK_B_IBK\FP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827294FC-23F7-4381-A61D-B82C4081C229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B964D881-D8AF-4D20-8352-C41E94461C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="-1230" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Timestamp</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Adanya fitur pembatalan pesanan di IBK online</t>
+  </si>
+  <si>
+    <t>Adanya fitur refund IBK online</t>
+  </si>
+  <si>
+    <t>Adanya fitur estimasi jumlah bahan bakar yang terpakai di IBK online</t>
   </si>
 </sst>
 </file>
@@ -110,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -126,6 +132,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,12 +159,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,19 +385,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="21.5546875" customWidth="1"/>
+    <col min="1" max="11" width="21.5546875" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" style="6" customWidth="1"/>
+    <col min="13" max="20" width="21.5546875" customWidth="1"/>
+    <col min="21" max="21" width="21.5546875" style="6" customWidth="1"/>
+    <col min="22" max="27" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,32 +435,38 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="U1" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43959.778440752314</v>
       </c>
@@ -477,32 +500,38 @@
       <c r="K2" s="4">
         <v>3</v>
       </c>
-      <c r="L2" s="4">
-        <v>4</v>
+      <c r="L2" s="5">
+        <v>3</v>
       </c>
       <c r="M2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" s="4">
         <v>3</v>
       </c>
       <c r="O2" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="4">
         <v>3</v>
       </c>
       <c r="R2" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2" s="4">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="T2" s="4">
+        <v>4</v>
+      </c>
+      <c r="U2" s="5">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43959.793825659726</v>
       </c>
@@ -536,8 +565,8 @@
       <c r="K3" s="4">
         <v>4</v>
       </c>
-      <c r="L3" s="4">
-        <v>4</v>
+      <c r="L3" s="5">
+        <v>3</v>
       </c>
       <c r="M3" s="4">
         <v>4</v>
@@ -549,19 +578,25 @@
         <v>4</v>
       </c>
       <c r="P3" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" s="4">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="T3" s="4">
+        <v>4</v>
+      </c>
+      <c r="U3" s="5">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43959.79405744213</v>
       </c>
@@ -595,23 +630,23 @@
       <c r="K4" s="4">
         <v>3</v>
       </c>
-      <c r="L4" s="4">
-        <v>4</v>
+      <c r="L4" s="5">
+        <v>3</v>
       </c>
       <c r="M4" s="4">
         <v>4</v>
       </c>
       <c r="N4" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P4" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R4" s="4">
         <v>4</v>
@@ -619,8 +654,14 @@
       <c r="S4" s="4">
         <v>4</v>
       </c>
+      <c r="T4" s="4">
+        <v>4</v>
+      </c>
+      <c r="U4" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43959.800008425926</v>
       </c>
@@ -654,32 +695,38 @@
       <c r="K5" s="4">
         <v>4</v>
       </c>
-      <c r="L5" s="4">
-        <v>3</v>
+      <c r="L5" s="5">
+        <v>2</v>
       </c>
       <c r="M5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="4">
         <v>1</v>
       </c>
-      <c r="Q5" s="4">
-        <v>4</v>
-      </c>
       <c r="R5" s="4">
         <v>4</v>
       </c>
       <c r="S5" s="4">
         <v>4</v>
       </c>
+      <c r="T5" s="4">
+        <v>4</v>
+      </c>
+      <c r="U5" s="5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43959.823752569442</v>
       </c>
@@ -713,23 +760,23 @@
       <c r="K6" s="4">
         <v>3</v>
       </c>
-      <c r="L6" s="4">
-        <v>4</v>
+      <c r="L6" s="5">
+        <v>1</v>
       </c>
       <c r="M6" s="4">
         <v>4</v>
       </c>
       <c r="N6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R6" s="4">
         <v>4</v>
@@ -737,8 +784,14 @@
       <c r="S6" s="4">
         <v>4</v>
       </c>
+      <c r="T6" s="4">
+        <v>4</v>
+      </c>
+      <c r="U6" s="5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43959.853638333334</v>
       </c>
@@ -772,14 +825,14 @@
       <c r="K7" s="4">
         <v>2</v>
       </c>
-      <c r="L7" s="4">
-        <v>3</v>
+      <c r="L7" s="5">
+        <v>2</v>
       </c>
       <c r="M7" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" s="4">
         <v>3</v>
@@ -788,16 +841,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R7" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7" s="4">
         <v>3</v>
       </c>
+      <c r="T7" s="4">
+        <v>3</v>
+      </c>
+      <c r="U7" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43959.927596145833</v>
       </c>
@@ -831,8 +890,8 @@
       <c r="K8" s="4">
         <v>2</v>
       </c>
-      <c r="L8" s="4">
-        <v>4</v>
+      <c r="L8" s="5">
+        <v>2</v>
       </c>
       <c r="M8" s="4">
         <v>4</v>
@@ -844,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="4">
         <v>3</v>
@@ -853,10 +912,16 @@
         <v>3</v>
       </c>
       <c r="S8" s="4">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="T8" s="4">
+        <v>4</v>
+      </c>
+      <c r="U8" s="5">
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43959.936789386571</v>
       </c>
@@ -890,17 +955,17 @@
       <c r="K9" s="4">
         <v>3</v>
       </c>
-      <c r="L9" s="4">
-        <v>3</v>
+      <c r="L9" s="5">
+        <v>2</v>
       </c>
       <c r="M9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P9" s="4">
         <v>4</v>
@@ -914,8 +979,14 @@
       <c r="S9" s="4">
         <v>4</v>
       </c>
+      <c r="T9" s="4">
+        <v>4</v>
+      </c>
+      <c r="U9" s="5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43960.61333680556</v>
       </c>
@@ -949,14 +1020,14 @@
       <c r="K10" s="4">
         <v>3</v>
       </c>
-      <c r="L10" s="4">
-        <v>4</v>
+      <c r="L10" s="5">
+        <v>2</v>
       </c>
       <c r="M10" s="4">
         <v>4</v>
       </c>
       <c r="N10" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" s="4">
         <v>3</v>
@@ -972,6 +1043,12 @@
       </c>
       <c r="S10" s="4">
         <v>3</v>
+      </c>
+      <c r="T10" s="4">
+        <v>3</v>
+      </c>
+      <c r="U10" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
